--- a/100runs/run048/NotionalETEOutput048.xlsx
+++ b/100runs/run048/NotionalETEOutput048.xlsx
@@ -49,22 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_343.MISSILE_BRAVER_343</t>
+    <t>MISSILE_SOMERSAULT_413.MISSILE_SOMERSAULT_413</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_116.MISSILE_HIGHWIND_116</t>
+    <t>MISSILE_HELLMASKER_309.MISSILE_HELLMASKER_309</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -480,22 +480,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>185.6498221559721</v>
+        <v>1116576.797998612</v>
       </c>
       <c r="G2">
-        <v>-66.46857703928693</v>
+        <v>4841127.592487725</v>
       </c>
       <c r="H2">
-        <v>1017.664673971257</v>
+        <v>3985228.017267243</v>
       </c>
       <c r="I2">
-        <v>-2435.251787132798</v>
+        <v>1114862.618608733</v>
       </c>
       <c r="J2">
-        <v>1278.875224930423</v>
+        <v>4843220.03141693</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984374.979855397</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,22 +515,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>185.6498221559721</v>
+        <v>1116576.797998612</v>
       </c>
       <c r="G3">
-        <v>-66.46857703928693</v>
+        <v>4841127.592487725</v>
       </c>
       <c r="H3">
-        <v>1017.664673971257</v>
+        <v>3985228.017267243</v>
       </c>
       <c r="I3">
-        <v>-2387.173432418987</v>
+        <v>1114892.232638698</v>
       </c>
       <c r="J3">
-        <v>1247.765569506606</v>
+        <v>4843171.379861275</v>
       </c>
       <c r="K3">
-        <v>391.1349262952836</v>
+        <v>3984678.776202583</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,22 +550,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>185.6498221559721</v>
+        <v>1116576.797998612</v>
       </c>
       <c r="G4">
-        <v>-66.46857703928693</v>
+        <v>4841127.592487725</v>
       </c>
       <c r="H4">
-        <v>1017.664673971257</v>
+        <v>3985228.017267243</v>
       </c>
       <c r="I4">
-        <v>-2337.911192451625</v>
+        <v>1114922.575886906</v>
       </c>
       <c r="J4">
-        <v>1216.655914082789</v>
+        <v>4843122.728305617</v>
       </c>
       <c r="K4">
-        <v>762.766072267347</v>
+        <v>3984967.423871347</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>185.6498221559721</v>
+        <v>1116576.797998612</v>
       </c>
       <c r="G5">
-        <v>-66.46857703928693</v>
+        <v>4841127.592487725</v>
       </c>
       <c r="H5">
-        <v>1017.664673971257</v>
+        <v>3985228.017267243</v>
       </c>
       <c r="I5">
-        <v>-2287.435915145496</v>
+        <v>1114953.666309685</v>
       </c>
       <c r="J5">
-        <v>1185.546258658972</v>
+        <v>4843074.076749961</v>
       </c>
       <c r="K5">
-        <v>1114.893437916193</v>
+        <v>3985240.922861687</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>185.6498221559721</v>
+        <v>1116576.797998612</v>
       </c>
       <c r="G6">
-        <v>-66.46857703928693</v>
+        <v>4841127.592487725</v>
       </c>
       <c r="H6">
-        <v>1017.664673971257</v>
+        <v>3985228.017267243</v>
       </c>
       <c r="I6">
-        <v>-2235.717730572107</v>
+        <v>1114985.522305524</v>
       </c>
       <c r="J6">
-        <v>1154.436603235155</v>
+        <v>4843025.425194304</v>
       </c>
       <c r="K6">
-        <v>1447.517023241819</v>
+        <v>3985499.273173604</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,22 +655,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>185.6498221559721</v>
+        <v>1116576.797998612</v>
       </c>
       <c r="G7">
-        <v>-66.46857703928693</v>
+        <v>4841127.592487725</v>
       </c>
       <c r="H7">
-        <v>1017.664673971257</v>
+        <v>3985228.017267243</v>
       </c>
       <c r="I7">
-        <v>-2182.726033283456</v>
+        <v>1115018.162725952</v>
       </c>
       <c r="J7">
-        <v>1123.326947811338</v>
+        <v>4842976.773638649</v>
       </c>
       <c r="K7">
-        <v>1760.636828244228</v>
+        <v>3985742.474807098</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,22 +690,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>185.6498221559721</v>
+        <v>1116576.797998612</v>
       </c>
       <c r="G8">
-        <v>-66.46857703928693</v>
+        <v>4841127.592487725</v>
       </c>
       <c r="H8">
-        <v>1017.664673971257</v>
+        <v>3985228.017267243</v>
       </c>
       <c r="I8">
-        <v>-2128.429464200539</v>
+        <v>1115051.606886706</v>
       </c>
       <c r="J8">
-        <v>1092.217292387521</v>
+        <v>4842928.122082992</v>
       </c>
       <c r="K8">
-        <v>2054.252852923418</v>
+        <v>3985970.527762169</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,22 +725,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>185.6498221559721</v>
+        <v>1116576.797998612</v>
       </c>
       <c r="G9">
-        <v>-66.46857703928693</v>
+        <v>4841127.592487725</v>
       </c>
       <c r="H9">
-        <v>1017.664673971257</v>
+        <v>3985228.017267243</v>
       </c>
       <c r="I9">
-        <v>-2072.795892055883</v>
+        <v>1115085.874579149</v>
       </c>
       <c r="J9">
-        <v>1061.107636963704</v>
+        <v>4842879.470527335</v>
       </c>
       <c r="K9">
-        <v>2328.36509727939</v>
+        <v>3986183.432038816</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +760,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>185.6498221559721</v>
+        <v>1116576.797998612</v>
       </c>
       <c r="G10">
-        <v>-55.49274400274696</v>
+        <v>4841144.105317269</v>
       </c>
       <c r="H10">
-        <v>1017.664673971257</v>
+        <v>3985228.017267243</v>
       </c>
       <c r="I10">
-        <v>-2015.792394379113</v>
+        <v>1115120.986081993</v>
       </c>
       <c r="J10">
-        <v>1029.997981539887</v>
+        <v>4842830.818971679</v>
       </c>
       <c r="K10">
-        <v>2582.973561312142</v>
+        <v>3986381.18763704</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,22 +795,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>144.0859192438369</v>
+        <v>1116528.117509214</v>
       </c>
       <c r="G11">
-        <v>-44.516910966207</v>
+        <v>4841160.618146812</v>
       </c>
       <c r="H11">
-        <v>1253.756030410196</v>
+        <v>3985427.271658464</v>
       </c>
       <c r="I11">
-        <v>-1957.385238014308</v>
+        <v>1115156.962173293</v>
       </c>
       <c r="J11">
-        <v>998.8883261160701</v>
+        <v>4842782.167416023</v>
       </c>
       <c r="K11">
-        <v>2818.078245021674</v>
+        <v>3986563.794556841</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +830,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>119.6692113534071</v>
+        <v>1116499.520163769</v>
       </c>
       <c r="G12">
-        <v>-33.54107792966705</v>
+        <v>4841177.130976355</v>
       </c>
       <c r="H12">
-        <v>1394.384116475582</v>
+        <v>3985545.957764132</v>
       </c>
       <c r="I12">
-        <v>-1897.53985915762</v>
+        <v>1115193.824142744</v>
       </c>
       <c r="J12">
-        <v>967.7786706922531</v>
+        <v>4842733.515860366</v>
       </c>
       <c r="K12">
-        <v>3033.67914840799</v>
+        <v>3986731.25279822</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,22 +865,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>104.2555940326458</v>
+        <v>1116481.467421317</v>
       </c>
       <c r="G13">
-        <v>-22.56524489312709</v>
+        <v>4841193.643805898</v>
       </c>
       <c r="H13">
-        <v>1494.881504897533</v>
+        <v>3985630.774702165</v>
       </c>
       <c r="I13">
-        <v>-1836.220842903322</v>
+        <v>1115231.59380428</v>
       </c>
       <c r="J13">
-        <v>936.6690152684359</v>
+        <v>4842684.864304709</v>
       </c>
       <c r="K13">
-        <v>3229.776271471087</v>
+        <v>3986883.562361174</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,22 +900,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>93.50619988069269</v>
+        <v>1116468.877512012</v>
       </c>
       <c r="G14">
-        <v>-11.58941185658712</v>
+        <v>4841210.15663544</v>
       </c>
       <c r="H14">
-        <v>1573.138767420192</v>
+        <v>3985696.821606371</v>
       </c>
       <c r="I14">
-        <v>-1773.391902286225</v>
+        <v>1115270.293508984</v>
       </c>
       <c r="J14">
-        <v>905.5593598446188</v>
+        <v>4842636.212749053</v>
       </c>
       <c r="K14">
-        <v>3406.369614210965</v>
+        <v>3987020.723245705</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,22 +935,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>85.48682993570957</v>
+        <v>1116459.485062645</v>
       </c>
       <c r="G15">
-        <v>-0.613578820047173</v>
+        <v>4841226.669464983</v>
       </c>
       <c r="H15">
-        <v>1637.237535612838</v>
+        <v>3985750.91914398</v>
       </c>
       <c r="I15">
-        <v>-1709.015856807996</v>
+        <v>1115309.946158313</v>
       </c>
       <c r="J15">
-        <v>874.4497044208018</v>
+        <v>4842587.561193397</v>
       </c>
       <c r="K15">
-        <v>3563.459176627623</v>
+        <v>3987142.735451814</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,22 +970,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>79.21680251054497</v>
+        <v>1116452.141478857</v>
       </c>
       <c r="G16">
-        <v>10.36225421649279</v>
+        <v>4841243.182294525</v>
       </c>
       <c r="H16">
-        <v>1691.524513288711</v>
+        <v>3985796.735809407</v>
       </c>
       <c r="I16">
-        <v>-1643.054610434743</v>
+        <v>1115350.575217652</v>
       </c>
       <c r="J16">
-        <v>843.3400489969848</v>
+        <v>4842538.90963774</v>
       </c>
       <c r="K16">
-        <v>3701.044958721064</v>
+        <v>3987249.598979499</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,22 +1005,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>74.14389378792015</v>
+        <v>1116446.199984869</v>
       </c>
       <c r="G17">
-        <v>21.33808725303275</v>
+        <v>4841259.695124068</v>
       </c>
       <c r="H17">
-        <v>1738.608579290421</v>
+        <v>3985836.473422206</v>
       </c>
       <c r="I17">
-        <v>-1575.469129052781</v>
+        <v>1115392.2047302</v>
       </c>
       <c r="J17">
-        <v>812.2303935731678</v>
+        <v>4842490.258082083</v>
       </c>
       <c r="K17">
-        <v>3819.126960491286</v>
+        <v>3987341.313828761</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,22 +1040,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>69.93157196950109</v>
+        <v>1116441.266427785</v>
       </c>
       <c r="G18">
-        <v>32.3139202895727</v>
+        <v>4841276.207953612</v>
       </c>
       <c r="H18">
-        <v>1780.179150427462</v>
+        <v>3985871.557802123</v>
       </c>
       <c r="I18">
-        <v>-1506.219417369292</v>
+        <v>1115434.859331195</v>
       </c>
       <c r="J18">
-        <v>781.1207381493507</v>
+        <v>4842441.606526427</v>
       </c>
       <c r="K18">
-        <v>3917.70518193829</v>
+        <v>3987417.8799996</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,22 +1075,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>66.36194616622804</v>
+        <v>1116437.085609361</v>
       </c>
       <c r="G19">
-        <v>43.28975332611267</v>
+        <v>4841292.720783154</v>
       </c>
       <c r="H19">
-        <v>1817.393176794533</v>
+        <v>3985902.965382141</v>
       </c>
       <c r="I19">
-        <v>-1435.264495244163</v>
+        <v>1115478.564262498</v>
       </c>
       <c r="J19">
-        <v>750.0110827255336</v>
+        <v>4842392.954970771</v>
       </c>
       <c r="K19">
-        <v>3996.779623062074</v>
+        <v>3987479.297492016</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,22 +1110,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>63.2870617907092</v>
+        <v>1116433.484242171</v>
       </c>
       <c r="G20">
-        <v>54.26558636265263</v>
+        <v>4841309.233612698</v>
       </c>
       <c r="H20">
-        <v>1851.077781082124</v>
+        <v>3985931.394230286</v>
       </c>
       <c r="I20">
-        <v>-1362.562373439034</v>
+        <v>1115523.345387527</v>
       </c>
       <c r="J20">
-        <v>718.9014273017167</v>
+        <v>4842344.303415114</v>
       </c>
       <c r="K20">
-        <v>4056.35028386264</v>
+        <v>3987525.566306008</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,22 +1145,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>60.60252884627251</v>
+        <v>1116430.340062525</v>
       </c>
       <c r="G21">
-        <v>65.24141939919258</v>
+        <v>4841325.746442241</v>
       </c>
       <c r="H21">
-        <v>1881.844820918329</v>
+        <v>3985957.360737001</v>
       </c>
       <c r="I21">
-        <v>-1288.07002876918</v>
+        <v>1115569.229206563</v>
       </c>
       <c r="J21">
-        <v>687.7917718778996</v>
+        <v>4842295.651859458</v>
       </c>
       <c r="K21">
-        <v>4096.417164339988</v>
+        <v>3987556.686441578</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,22 +1180,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>58.23233998391527</v>
+        <v>1116427.564049069</v>
       </c>
       <c r="G22">
-        <v>76.21725243573255</v>
+        <v>4841342.259271783</v>
       </c>
       <c r="H22">
-        <v>1910.159661196399</v>
+        <v>3985981.25765702</v>
       </c>
       <c r="I22">
-        <v>-1211.743378643531</v>
+        <v>1115616.242872429</v>
       </c>
       <c r="J22">
-        <v>656.6821164540827</v>
+        <v>4842247.000303801</v>
       </c>
       <c r="K22">
-        <v>4116.980264494116</v>
+        <v>3987572.657898724</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,22 +1215,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>56.11967943282525</v>
+        <v>1116425.089658014</v>
       </c>
       <c r="G23">
-        <v>87.1930854722725</v>
+        <v>4841358.772101326</v>
       </c>
       <c r="H23">
-        <v>1936.384502242554</v>
+        <v>3986003.390677121</v>
       </c>
       <c r="I23">
-        <v>-1133.537254977768</v>
+        <v>1115664.414206565</v>
       </c>
       <c r="J23">
-        <v>625.5724610302656</v>
+        <v>4842198.348748145</v>
       </c>
       <c r="K23">
-        <v>4118.039584325026</v>
+        <v>3987573.480677446</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,22 +1250,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>54.22112027730414</v>
+        <v>1116422.866026873</v>
       </c>
       <c r="G24">
-        <v>98.16891850881247</v>
+        <v>4841375.284930869</v>
       </c>
       <c r="H24">
-        <v>1960.806786113717</v>
+        <v>3986024.002390224</v>
       </c>
       <c r="I24">
-        <v>-1053.40537746505</v>
+        <v>1115713.771715488</v>
       </c>
       <c r="J24">
-        <v>594.4628056064485</v>
+        <v>4842149.697192488</v>
       </c>
       <c r="K24">
-        <v>4099.595123832717</v>
+        <v>3987559.154777746</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,22 +1285,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>52.50282848784187</v>
+        <v>1116420.853528542</v>
       </c>
       <c r="G25">
-        <v>109.1447515453524</v>
+        <v>4841391.797760411</v>
       </c>
       <c r="H25">
-        <v>1983.658452373651</v>
+        <v>3986043.288546725</v>
       </c>
       <c r="I25">
-        <v>-971.3003261885566</v>
+        <v>1115764.34460766</v>
       </c>
       <c r="J25">
-        <v>563.3531501826315</v>
+        <v>4842101.045636832</v>
       </c>
       <c r="K25">
-        <v>4061.64688301719</v>
+        <v>3987529.680199622</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,22 +1320,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>50.93800297152911</v>
+        <v>1116419.020773035</v>
       </c>
       <c r="G26">
-        <v>120.1205845818924</v>
+        <v>4841408.310589955</v>
       </c>
       <c r="H26">
-        <v>2005.129367445541</v>
+        <v>3986061.409388488</v>
       </c>
       <c r="I26">
-        <v>-887.1735135596421</v>
+        <v>1115816.162810775</v>
       </c>
       <c r="J26">
-        <v>532.2434947588144</v>
+        <v>4842052.394081175</v>
       </c>
       <c r="K26">
-        <v>4004.194861878444</v>
+        <v>3987485.056943076</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,22 +1355,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>49.50510305317975</v>
+        <v>1116417.342531475</v>
       </c>
       <c r="G27">
-        <v>131.0964176184323</v>
+        <v>4841424.823419497</v>
       </c>
       <c r="H27">
-        <v>2025.376922912109</v>
+        <v>3986078.497749532</v>
       </c>
       <c r="I27">
-        <v>-800.9751555649892</v>
+        <v>1115869.25698947</v>
       </c>
       <c r="J27">
-        <v>501.1338393349973</v>
+        <v>4842003.742525518</v>
       </c>
       <c r="K27">
-        <v>3927.23906041648</v>
+        <v>3987425.285008106</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,22 +1390,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>48.18659254689708</v>
+        <v>1116415.798265123</v>
       </c>
       <c r="G28">
-        <v>142.0722506549723</v>
+        <v>4841441.33624904</v>
       </c>
       <c r="H28">
-        <v>2044.533043756173</v>
+        <v>3986094.664970791</v>
       </c>
       <c r="I28">
-        <v>-712.6542423057535</v>
+        <v>1115923.65856347</v>
       </c>
       <c r="J28">
-        <v>470.0241839111804</v>
+        <v>4841955.090969862</v>
       </c>
       <c r="K28">
-        <v>3830.779478631297</v>
+        <v>3987350.364394713</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,22 +1425,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>46.96803157787124</v>
+        <v>1116414.371061704</v>
       </c>
       <c r="G29">
-        <v>153.0480836915123</v>
+        <v>4841457.849078584</v>
       </c>
       <c r="H29">
-        <v>2062.709402467632</v>
+        <v>3986110.005300671</v>
       </c>
       <c r="I29">
-        <v>-622.1585078112586</v>
+        <v>1115979.399726181</v>
       </c>
       <c r="J29">
-        <v>438.9145284873633</v>
+        <v>4841906.439414206</v>
       </c>
       <c r="K29">
-        <v>3714.816116522895</v>
+        <v>3987260.295102897</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,22 +1460,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>45.83740789289305</v>
+        <v>1116413.046852223</v>
       </c>
       <c r="G30">
-        <v>164.0239167280522</v>
+        <v>4841474.361908126</v>
       </c>
       <c r="H30">
-        <v>2080.001363439471</v>
+        <v>3986124.599224009</v>
       </c>
       <c r="I30">
-        <v>-529.434399109386</v>
+        <v>1116036.513463743</v>
       </c>
       <c r="J30">
-        <v>407.8048730635462</v>
+        <v>4841857.78785855</v>
       </c>
       <c r="K30">
-        <v>3579.348974091274</v>
+        <v>3987155.077132658</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,22 +1495,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>44.7846364846963</v>
+        <v>1116411.813824913</v>
       </c>
       <c r="G31">
-        <v>174.9997497645922</v>
+        <v>4841490.874737669</v>
       </c>
       <c r="H31">
-        <v>2096.491011516614</v>
+        <v>3986138.516018078</v>
       </c>
       <c r="I31">
-        <v>-434.427044535346</v>
+        <v>1116095.033574549</v>
       </c>
       <c r="J31">
-        <v>376.6952176397292</v>
+        <v>4841809.136302892</v>
       </c>
       <c r="K31">
-        <v>3424.378051336435</v>
+        <v>3987034.710483995</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,22 +1530,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>43.8011796809662</v>
+        <v>1116410.66198028</v>
       </c>
       <c r="G32">
-        <v>185.9755828011321</v>
+        <v>4841507.387567212</v>
       </c>
       <c r="H32">
-        <v>2112.249508593308</v>
+        <v>3986151.815741494</v>
       </c>
       <c r="I32">
-        <v>-337.0802212600838</v>
+        <v>1116154.994689246</v>
       </c>
       <c r="J32">
-        <v>345.5855622159121</v>
+        <v>4841760.484747237</v>
       </c>
       <c r="K32">
-        <v>3249.903348258377</v>
+        <v>3986899.195156909</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,22 +1565,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>42.87975487838964</v>
+        <v>1116409.58278879</v>
       </c>
       <c r="G33">
-        <v>196.9514158376721</v>
+        <v>4841523.900396754</v>
       </c>
       <c r="H33">
-        <v>2127.338949588193</v>
+        <v>3986164.550800603</v>
       </c>
       <c r="I33">
-        <v>-237.3363220191029</v>
+        <v>1116216.432291229</v>
       </c>
       <c r="J33">
-        <v>314.4759067920952</v>
+        <v>4841711.83319158</v>
       </c>
       <c r="K33">
-        <v>3055.924864857102</v>
+        <v>3986748.5311514</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,22 +1600,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>42.01410699912962</v>
+        <v>1116408.568924368</v>
       </c>
       <c r="G34">
-        <v>207.927248874212</v>
+        <v>4841540.413226298</v>
       </c>
       <c r="H34">
-        <v>2141.813840232027</v>
+        <v>3986176.767196691</v>
       </c>
       <c r="I34">
-        <v>-135.1363210220174</v>
+        <v>1116279.382737639</v>
       </c>
       <c r="J34">
-        <v>283.3662513682781</v>
+        <v>4841663.181635924</v>
       </c>
       <c r="K34">
-        <v>2842.442601132606</v>
+        <v>3986582.718467468</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,22 +1635,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>41.19882939395904</v>
+        <v>1116407.614054636</v>
       </c>
       <c r="G35">
-        <v>218.903081910752</v>
+        <v>4841556.92605584</v>
       </c>
       <c r="H35">
-        <v>2155.722285533005</v>
+        <v>3986188.505529017</v>
       </c>
       <c r="I35">
-        <v>-30.41973902265605</v>
+        <v>1116343.883280879</v>
       </c>
       <c r="J35">
-        <v>252.256595944461</v>
+        <v>4841614.530080266</v>
       </c>
       <c r="K35">
-        <v>2609.456557084892</v>
+        <v>3986401.757105112</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,22 +1670,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>40.42922146098801</v>
+        <v>1116406.712674155</v>
       </c>
       <c r="G36">
-        <v>229.878914947292</v>
+        <v>4841573.438885383</v>
       </c>
       <c r="H36">
-        <v>2169.106954338652</v>
+        <v>3986199.801808876</v>
       </c>
       <c r="I36">
-        <v>76.87539247095093</v>
+        <v>1116409.972090656</v>
       </c>
       <c r="J36">
-        <v>221.1469405206441</v>
+        <v>4841565.87852461</v>
       </c>
       <c r="K36">
-        <v>2356.96673271396</v>
+        <v>3986205.647064334</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,22 +1705,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>39.70117440758855</v>
+        <v>1116405.859970621</v>
       </c>
       <c r="G37">
-        <v>240.8547479838319</v>
+        <v>4841589.951714926</v>
       </c>
       <c r="H37">
-        <v>2182.005868780883</v>
+        <v>3986210.688125865</v>
       </c>
       <c r="I37">
-        <v>186.8125678678768</v>
+        <v>1116477.688276574</v>
       </c>
       <c r="J37">
-        <v>190.0372850968269</v>
+        <v>4841517.226968954</v>
       </c>
       <c r="K37">
-        <v>2084.973128019809</v>
+        <v>3985994.388345132</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,22 +1740,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>39.0110788116382</v>
+        <v>1116405.051716608</v>
       </c>
       <c r="G38">
-        <v>251.8305810203719</v>
+        <v>4841606.464544469</v>
       </c>
       <c r="H38">
-        <v>2194.45305542234</v>
+        <v>3986221.193197436</v>
       </c>
       <c r="I38">
-        <v>299.4568450686062</v>
+        <v>1116547.071911273</v>
       </c>
       <c r="J38">
-        <v>158.92762967301</v>
+        <v>4841468.575413298</v>
       </c>
       <c r="K38">
-        <v>1793.475743002441</v>
+        <v>3985767.980947508</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,22 +1775,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>38.35574923236411</v>
+        <v>1116404.284181261</v>
       </c>
       <c r="G39">
-        <v>262.8064140569119</v>
+        <v>4841622.977374012</v>
       </c>
       <c r="H39">
-        <v>2206.479086195917</v>
+        <v>3986231.34282543</v>
       </c>
       <c r="I39">
-        <v>414.8748839645676</v>
+        <v>1116618.164054144</v>
       </c>
       <c r="J39">
-        <v>127.8179742491929</v>
+        <v>4841419.92385764</v>
       </c>
       <c r="K39">
-        <v>1482.474577661851</v>
+        <v>3985526.424871459</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,22 +1810,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>37.73236227607461</v>
+        <v>1116403.554057765</v>
       </c>
       <c r="G40">
-        <v>273.7822470934518</v>
+        <v>4841639.490203555</v>
       </c>
       <c r="H40">
-        <v>2218.111530789585</v>
+        <v>3986241.160277881</v>
       </c>
       <c r="I40">
-        <v>533.1349858856943</v>
+        <v>1116691.006775629</v>
       </c>
       <c r="J40">
-        <v>96.70831882537581</v>
+        <v>4841371.272301984</v>
       </c>
       <c r="K40">
-        <v>1151.969631998044</v>
+        <v>3985269.720116988</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,22 +1845,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>37.13840536884324</v>
+        <v>1116402.858403341</v>
       </c>
       <c r="G41">
-        <v>284.7580801299918</v>
+        <v>4841656.003033097</v>
       </c>
       <c r="H41">
-        <v>2229.375337322692</v>
+        <v>3986250.666610292</v>
       </c>
       <c r="I41">
-        <v>654.307134019328</v>
+        <v>1116765.643182117</v>
       </c>
       <c r="J41">
-        <v>65.59866340155885</v>
+        <v>4841322.620746328</v>
       </c>
       <c r="K41">
-        <v>801.9609060110193</v>
+        <v>3984997.866684094</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,22 +1880,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>36.57163411587346</v>
+        <v>1116402.194589309</v>
       </c>
       <c r="G42">
-        <v>295.7339131665317</v>
+        <v>4841672.515862641</v>
       </c>
       <c r="H42">
-        <v>2240.293154535627</v>
+        <v>3986259.880937555</v>
       </c>
       <c r="I42">
-        <v>778.4630348244229</v>
+        <v>1116842.117441451</v>
       </c>
       <c r="J42">
-        <v>34.48900797774176</v>
+        <v>4841273.969190672</v>
       </c>
       <c r="K42">
-        <v>432.4483997007746</v>
+        <v>3984710.864572776</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,22 +1915,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>36.03003659729161</v>
+        <v>1116401.560259268</v>
       </c>
       <c r="G43">
-        <v>306.7097462030717</v>
+        <v>4841689.028692184</v>
       </c>
       <c r="H43">
-        <v>2250.88560595516</v>
+        <v>3986268.820665341</v>
       </c>
       <c r="I43">
-        <v>905.676160465508</v>
+        <v>1116920.474809066</v>
       </c>
       <c r="J43">
-        <v>3.379352553924666</v>
+        <v>4841225.317635015</v>
       </c>
       <c r="K43">
-        <v>43.43211306731151</v>
+        <v>3984408.713783035</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,22 +1950,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>35.5118033054728</v>
+        <v>1116400.953293884</v>
       </c>
       <c r="G44">
-        <v>317.6855792396116</v>
+        <v>4841705.541521726</v>
       </c>
       <c r="H44">
-        <v>2261.171524377342</v>
+        <v>3986277.501687993</v>
       </c>
       <c r="I44">
-        <v>1036.021792291574</v>
+        <v>1117000.76165477</v>
       </c>
       <c r="J44">
-        <v>-27.73030286989228</v>
+        <v>4841176.666079358</v>
       </c>
       <c r="K44">
-        <v>-365.087953889369</v>
+        <v>3984091.414314871</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,22 +1985,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>35.01530170007581</v>
+        <v>1116400.371781094</v>
       </c>
       <c r="G45">
-        <v>328.6614122761516</v>
+        <v>4841722.054351269</v>
       </c>
       <c r="H45">
-        <v>2271.16815336683</v>
+        <v>3986285.938558591</v>
       </c>
       <c r="I45">
-        <v>1169.577065385575</v>
+        <v>1117083.025490188</v>
       </c>
       <c r="J45">
-        <v>-58.83995829370938</v>
+        <v>4841128.014523703</v>
       </c>
       <c r="K45">
-        <v>-793.1118011692695</v>
+        <v>3983758.966168284</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,22 +2020,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>34.5390545654812</v>
+        <v>1116399.813990753</v>
       </c>
       <c r="G46">
-        <v>339.6372453126916</v>
+        <v>4841738.567180811</v>
       </c>
       <c r="H46">
-        <v>2280.891321188189</v>
+        <v>3986294.14463574</v>
       </c>
       <c r="I46">
-        <v>1306.421014210919</v>
+        <v>1117167.314996872</v>
       </c>
       <c r="J46">
-        <v>-89.94961371752647</v>
+        <v>4841079.362968045</v>
       </c>
       <c r="K46">
-        <v>-1240.639428772389</v>
+        <v>3983411.369343274</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,22 +2055,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>34.08172151700093</v>
+        <v>1116399.278352975</v>
       </c>
       <c r="G47">
-        <v>350.6130783492315</v>
+        <v>4841755.080010355</v>
       </c>
       <c r="H47">
-        <v>2290.355591574934</v>
+        <v>3986302.132210815</v>
       </c>
       <c r="I47">
-        <v>1446.634619381962</v>
+        <v>1117253.680055112</v>
       </c>
       <c r="J47">
-        <v>-121.0592691413436</v>
+        <v>4841030.711412389</v>
       </c>
       <c r="K47">
-        <v>-1707.670836698727</v>
+        <v>3983048.62383984</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,22 +2090,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>33.64208312850565</v>
+        <v>1116398.763439543</v>
       </c>
       <c r="G48">
-        <v>361.5889113857714</v>
+        <v>4841771.592839898</v>
       </c>
       <c r="H48">
-        <v>2299.57439494188</v>
+        <v>3986309.912618706</v>
       </c>
       <c r="I48">
-        <v>1590.300855586189</v>
+        <v>1117342.171773458</v>
       </c>
       <c r="J48">
-        <v>-152.1689245651604</v>
+        <v>4840982.059856732</v>
       </c>
       <c r="K48">
-        <v>-2194.206024948281</v>
+        <v>3982670.729657983</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,22 +2125,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>33.21902725344811</v>
+        <v>1116398.267947888</v>
       </c>
       <c r="G49">
-        <v>372.5647444223115</v>
+        <v>4841788.10566944</v>
       </c>
       <c r="H49">
-        <v>2308.560143008094</v>
+        <v>3986317.496334551</v>
       </c>
       <c r="I49">
-        <v>1737.504740686434</v>
+        <v>1117432.842518957</v>
       </c>
       <c r="J49">
-        <v>-183.2785799889775</v>
+        <v>4840933.408301076</v>
       </c>
       <c r="K49">
-        <v>-2700.244993521055</v>
+        <v>3982277.686797704</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,22 +2160,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>32.81153718990841</v>
+        <v>1116397.790687228</v>
       </c>
       <c r="G50">
-        <v>383.5405774588514</v>
+        <v>4841804.618498984</v>
       </c>
       <c r="H50">
-        <v>2317.324329285399</v>
+        <v>3986324.893058546</v>
       </c>
       <c r="I50">
-        <v>1888.33338603218</v>
+        <v>1117525.745948148</v>
       </c>
       <c r="J50">
-        <v>-214.3882354127946</v>
+        <v>4840884.756745419</v>
       </c>
       <c r="K50">
-        <v>-3225.78774241705</v>
+        <v>3981869.495259</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,22 +2195,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>32.41868140295233</v>
+        <v>1116397.330566531</v>
       </c>
       <c r="G51">
-        <v>394.5164104953913</v>
+        <v>4841821.131328527</v>
       </c>
       <c r="H51">
-        <v>2325.877617473753</v>
+        <v>3986332.111790551</v>
       </c>
       <c r="I51">
-        <v>2042.876048009756</v>
+        <v>1117620.937038813</v>
       </c>
       <c r="J51">
-        <v>-245.4978908366116</v>
+        <v>4840836.105189763</v>
       </c>
       <c r="K51">
-        <v>-3770.834271636263</v>
+        <v>3981446.155041874</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,22 +2230,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>32.03960456782152</v>
+        <v>1116396.886584023</v>
       </c>
       <c r="G52">
-        <v>405.4922435319314</v>
+        <v>4841837.644158069</v>
       </c>
       <c r="H52">
-        <v>2334.229919468906</v>
+        <v>3986339.160895925</v>
       </c>
       <c r="I52">
-        <v>2201.224180861889</v>
+        <v>1117718.472122512</v>
       </c>
       <c r="J52">
-        <v>-276.6075462604288</v>
+        <v>4840787.453634107</v>
       </c>
       <c r="K52">
-        <v>-4335.384581178693</v>
+        <v>3981007.666146324</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,22 +2265,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>31.67351973795409</v>
+        <v>1116396.457818017</v>
       </c>
       <c r="G53">
-        <v>416.4680765684713</v>
+        <v>4841854.156987612</v>
       </c>
       <c r="H53">
-        <v>2342.390464413623</v>
+        <v>3986346.048163801</v>
       </c>
       <c r="I53">
-        <v>2363.471490807891</v>
+        <v>1117818.408917916</v>
       </c>
       <c r="J53">
-        <v>-307.7172016842455</v>
+        <v>4840738.80207845</v>
       </c>
       <c r="K53">
-        <v>-4919.438671044339</v>
+        <v>3980554.028572352</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,22 +2300,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>31.31970147464282</v>
+        <v>1116396.043418862</v>
       </c>
       <c r="G54">
-        <v>427.4439096050112</v>
+        <v>4841870.669817155</v>
       </c>
       <c r="H54">
-        <v>2350.367859998816</v>
+        <v>3986352.780858826</v>
       </c>
       <c r="I54">
-        <v>2529.713991496528</v>
+        <v>1117920.806564967</v>
       </c>
       <c r="J54">
-        <v>-338.8268571080627</v>
+        <v>4840690.150522794</v>
       </c>
       <c r="K54">
-        <v>-5522.996541233208</v>
+        <v>3980085.242319956</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>244.1551789546189</v>
+        <v>1116579.2486524</v>
       </c>
       <c r="G55">
-        <v>-59.26563496823623</v>
+        <v>4841125.57814165</v>
       </c>
       <c r="H55">
-        <v>286.8025265621355</v>
+        <v>3985226.5088916</v>
       </c>
       <c r="I55">
-        <v>-1513.589303219147</v>
+        <v>1114860.532467779</v>
       </c>
       <c r="J55">
-        <v>2706.4919888864</v>
+        <v>4843228.355522587</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984365.689238996</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>244.1551789546189</v>
+        <v>1116579.2486524</v>
       </c>
       <c r="G56">
-        <v>-59.26563496823623</v>
+        <v>4841125.57814165</v>
       </c>
       <c r="H56">
-        <v>286.8025265621355</v>
+        <v>3985226.5088916</v>
       </c>
       <c r="I56">
-        <v>-1483.707020082881</v>
+        <v>1114890.146442329</v>
       </c>
       <c r="J56">
-        <v>2640.654421983688</v>
+        <v>4843179.703883313</v>
       </c>
       <c r="K56">
-        <v>285.0337744662748</v>
+        <v>3984669.484877801</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>244.1551789546189</v>
+        <v>1116579.2486524</v>
       </c>
       <c r="G57">
-        <v>-59.26563496823623</v>
+        <v>4841125.57814165</v>
       </c>
       <c r="H57">
-        <v>286.8025265621355</v>
+        <v>3985226.5088916</v>
       </c>
       <c r="I57">
-        <v>-1453.088913215582</v>
+        <v>1114920.489633759</v>
       </c>
       <c r="J57">
-        <v>2574.816855080977</v>
+        <v>4843131.052244037</v>
       </c>
       <c r="K57">
-        <v>555.854458389744</v>
+        <v>3984958.131873507</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>244.1551789546189</v>
+        <v>1116579.2486524</v>
       </c>
       <c r="G58">
-        <v>-59.26563496823623</v>
+        <v>4841125.57814165</v>
       </c>
       <c r="H58">
-        <v>286.8025265621355</v>
+        <v>3985226.5088916</v>
       </c>
       <c r="I58">
-        <v>-1421.716863634816</v>
+        <v>1114951.579998362</v>
       </c>
       <c r="J58">
-        <v>2508.979288178265</v>
+        <v>4843082.400604763</v>
       </c>
       <c r="K58">
-        <v>812.4620517704093</v>
+        <v>3985231.630226112</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>244.1551789546189</v>
+        <v>1116579.2486524</v>
       </c>
       <c r="G59">
-        <v>-59.26563496823623</v>
+        <v>4841125.57814165</v>
       </c>
       <c r="H59">
-        <v>286.8025265621355</v>
+        <v>3985226.5088916</v>
       </c>
       <c r="I59">
-        <v>-1389.572306194882</v>
+        <v>1114983.435934591</v>
       </c>
       <c r="J59">
-        <v>2443.141721275554</v>
+        <v>4843033.748965489</v>
       </c>
       <c r="K59">
-        <v>1054.856554608269</v>
+        <v>3985489.979935618</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>244.1551789546189</v>
+        <v>1116579.2486524</v>
       </c>
       <c r="G60">
-        <v>-59.26563496823623</v>
+        <v>4841125.57814165</v>
       </c>
       <c r="H60">
-        <v>286.8025265621355</v>
+        <v>3985226.5088916</v>
       </c>
       <c r="I60">
-        <v>-1356.636218600438</v>
+        <v>1115016.076293943</v>
       </c>
       <c r="J60">
-        <v>2377.304154372842</v>
+        <v>4842985.097326214</v>
       </c>
       <c r="K60">
-        <v>1283.037966903326</v>
+        <v>3985733.181002024</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>244.1551789546189</v>
+        <v>1116579.2486524</v>
       </c>
       <c r="G61">
-        <v>-59.26563496823623</v>
+        <v>4841125.57814165</v>
       </c>
       <c r="H61">
-        <v>286.8025265621355</v>
+        <v>3985226.5088916</v>
       </c>
       <c r="I61">
-        <v>-1322.889110149627</v>
+        <v>1115049.520392115</v>
       </c>
       <c r="J61">
-        <v>2311.46658747013</v>
+        <v>4842936.445686939</v>
       </c>
       <c r="K61">
-        <v>1497.006288655577</v>
+        <v>3985961.233425329</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>244.1551789546189</v>
+        <v>1116579.2486524</v>
       </c>
       <c r="G62">
-        <v>-59.26563496823623</v>
+        <v>4841125.57814165</v>
       </c>
       <c r="H62">
-        <v>286.8025265621355</v>
+        <v>3985226.5088916</v>
       </c>
       <c r="I62">
-        <v>-1288.311010199985</v>
+        <v>1115083.788020436</v>
       </c>
       <c r="J62">
-        <v>2245.629020567418</v>
+        <v>4842887.794047665</v>
       </c>
       <c r="K62">
-        <v>1696.761519865024</v>
+        <v>3986174.137205534</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>244.1551789546189</v>
+        <v>1116579.2486524</v>
       </c>
       <c r="G63">
-        <v>-49.47921041710725</v>
+        <v>4841142.090964322</v>
       </c>
       <c r="H63">
-        <v>286.8025265621355</v>
+        <v>3985226.5088916</v>
       </c>
       <c r="I63">
-        <v>-1252.881456350352</v>
+        <v>1115118.899457579</v>
       </c>
       <c r="J63">
-        <v>2179.791453664707</v>
+        <v>4842839.142408391</v>
       </c>
       <c r="K63">
-        <v>1882.303660531666</v>
+        <v>3986371.892342639</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>189.4929011473232</v>
+        <v>1116530.568056158</v>
       </c>
       <c r="G64">
-        <v>-39.69278586597828</v>
+        <v>4841158.603786994</v>
       </c>
       <c r="H64">
-        <v>353.3387828143416</v>
+        <v>3985425.763207404</v>
       </c>
       <c r="I64">
-        <v>-1216.579482331764</v>
+        <v>1115154.875481561</v>
       </c>
       <c r="J64">
-        <v>2113.953886761995</v>
+        <v>4842790.490769116</v>
       </c>
       <c r="K64">
-        <v>2053.632710655503</v>
+        <v>3986554.498836644</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>157.3815550914026</v>
+        <v>1116501.970647948</v>
       </c>
       <c r="G65">
-        <v>-29.90636131484931</v>
+        <v>4841175.116609666</v>
       </c>
       <c r="H65">
-        <v>392.9711798314845</v>
+        <v>3985544.44926815</v>
       </c>
       <c r="I65">
-        <v>-1179.383605600171</v>
+        <v>1115191.737382035</v>
       </c>
       <c r="J65">
-        <v>2048.116319859284</v>
+        <v>4842741.839129841</v>
       </c>
       <c r="K65">
-        <v>2210.748670236536</v>
+        <v>3986721.956687549</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>137.1105176533663</v>
+        <v>1116483.917865874</v>
       </c>
       <c r="G66">
-        <v>-20.11993676372034</v>
+        <v>4841191.629432338</v>
       </c>
       <c r="H66">
-        <v>421.293775328325</v>
+        <v>3985629.266174081</v>
       </c>
       <c r="I66">
-        <v>-1141.271814623642</v>
+        <v>1115229.506972896</v>
       </c>
       <c r="J66">
-        <v>1982.278752956572</v>
+        <v>4842693.187490567</v>
       </c>
       <c r="K66">
-        <v>2353.651539274765</v>
+        <v>3986874.265895354</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>122.9735784290514</v>
+        <v>1116471.327928937</v>
       </c>
       <c r="G67">
-        <v>-10.33351221259137</v>
+        <v>4841208.14225501</v>
       </c>
       <c r="H67">
-        <v>443.3485652678731</v>
+        <v>3985695.313053288</v>
       </c>
       <c r="I67">
-        <v>-1102.22155585652</v>
+        <v>1115268.206605185</v>
       </c>
       <c r="J67">
-        <v>1916.44118605386</v>
+        <v>4842644.535851292</v>
       </c>
       <c r="K67">
-        <v>2482.341317770188</v>
+        <v>3987011.426460059</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>112.4269984146861</v>
+        <v>1116461.935458955</v>
       </c>
       <c r="G68">
-        <v>-0.5470876614624001</v>
+        <v>4841224.655077682</v>
       </c>
       <c r="H68">
-        <v>461.4131489538061</v>
+        <v>3985749.410570423</v>
       </c>
       <c r="I68">
-        <v>-1062.209720392838</v>
+        <v>1115307.859180316</v>
       </c>
       <c r="J68">
-        <v>1850.603619151149</v>
+        <v>4842595.884212018</v>
       </c>
       <c r="K68">
-        <v>2596.818005722807</v>
+        <v>3987133.438381664</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>104.1810456296881</v>
+        <v>1116454.59185905</v>
       </c>
       <c r="G69">
-        <v>9.239336889666573</v>
+        <v>4841241.167900354</v>
       </c>
       <c r="H69">
-        <v>476.7125326850943</v>
+        <v>3985795.227218507</v>
       </c>
       <c r="I69">
-        <v>-1021.212630291076</v>
+        <v>1115348.48816363</v>
       </c>
       <c r="J69">
-        <v>1784.766052248437</v>
+        <v>4842547.232572743</v>
       </c>
       <c r="K69">
-        <v>2697.081603132622</v>
+        <v>3987240.301660169</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>97.50946941911498</v>
+        <v>1116448.650352021</v>
       </c>
       <c r="G70">
-        <v>19.02576144079555</v>
+        <v>4841257.680723026</v>
       </c>
       <c r="H70">
-        <v>489.9819616389487</v>
+        <v>3985834.964816266</v>
       </c>
       <c r="I70">
-        <v>-979.2060245621899</v>
+        <v>1115390.117598279</v>
       </c>
       <c r="J70">
-        <v>1718.928485345725</v>
+        <v>4842498.580933468</v>
       </c>
       <c r="K70">
-        <v>2783.132109999631</v>
+        <v>3987332.016295573</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>91.96968394856118</v>
+        <v>1116443.716784109</v>
       </c>
       <c r="G71">
-        <v>28.81218599192451</v>
+        <v>4841274.193545698</v>
       </c>
       <c r="H71">
-        <v>501.6975543461306</v>
+        <v>3985870.049182904</v>
       </c>
       <c r="I71">
-        <v>-936.1650448125985</v>
+        <v>1115432.772119459</v>
       </c>
       <c r="J71">
-        <v>1653.090918443014</v>
+        <v>4842449.929294194</v>
       </c>
       <c r="K71">
-        <v>2854.969526323837</v>
+        <v>3987408.582287878</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>87.27513257933369</v>
+        <v>1116439.535956509</v>
       </c>
       <c r="G72">
-        <v>38.5986105430535</v>
+        <v>4841290.70636837</v>
       </c>
       <c r="H72">
-        <v>512.1853673346429</v>
+        <v>3985901.456751034</v>
       </c>
       <c r="I72">
-        <v>-892.0642205336484</v>
+        <v>1115476.476968981</v>
       </c>
       <c r="J72">
-        <v>1587.253351540302</v>
+        <v>4842401.27765492</v>
       </c>
       <c r="K72">
-        <v>2912.593852105238</v>
+        <v>3987469.999637083</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>83.23123457689539</v>
+        <v>1116435.934581415</v>
       </c>
       <c r="G73">
-        <v>48.38503509418246</v>
+        <v>4841307.219191043</v>
       </c>
       <c r="H73">
-        <v>521.6785037901191</v>
+        <v>3985929.88558842</v>
       </c>
       <c r="I73">
-        <v>-846.8774540288434</v>
+        <v>1115521.258010215</v>
       </c>
       <c r="J73">
-        <v>1521.41578463759</v>
+        <v>4842352.626015645</v>
       </c>
       <c r="K73">
-        <v>2956.005087343834</v>
+        <v>3987516.268343187</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>79.70070266554325</v>
+        <v>1116432.790394868</v>
       </c>
       <c r="G74">
-        <v>58.17145964531142</v>
+        <v>4841323.732013714</v>
       </c>
       <c r="H74">
-        <v>530.3493999954742</v>
+        <v>3985955.852085307</v>
       </c>
       <c r="I74">
-        <v>-800.5780049699208</v>
+        <v>1115567.141743392</v>
       </c>
       <c r="J74">
-        <v>1455.578217734879</v>
+        <v>4842303.97437637</v>
       </c>
       <c r="K74">
-        <v>2985.203232039625</v>
+        <v>3987547.388406192</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>76.58357667466085</v>
+        <v>1116430.014375319</v>
       </c>
       <c r="G75">
-        <v>67.9578841964404</v>
+        <v>4841340.244836386</v>
       </c>
       <c r="H75">
-        <v>538.3292070366915</v>
+        <v>3985979.748996281</v>
       </c>
       <c r="I75">
-        <v>-753.1384745726341</v>
+        <v>1115614.155321286</v>
       </c>
       <c r="J75">
-        <v>1389.740650832167</v>
+        <v>4842255.322737096</v>
       </c>
       <c r="K75">
-        <v>3000.188286192611</v>
+        <v>3987563.359826096</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>73.80513601185004</v>
+        <v>1116427.539978833</v>
       </c>
       <c r="G76">
-        <v>77.74430874756938</v>
+        <v>4841356.757659058</v>
       </c>
       <c r="H76">
-        <v>545.7200017287947</v>
+        <v>3986001.882008004</v>
       </c>
       <c r="I76">
-        <v>-704.5307893828818</v>
+        <v>1115662.326565284</v>
       </c>
       <c r="J76">
-        <v>1323.903083929455</v>
+        <v>4842206.671097822</v>
       </c>
       <c r="K76">
-        <v>3000.960249802794</v>
+        <v>3987564.182602901</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>71.30826827996098</v>
+        <v>1116425.316342812</v>
       </c>
       <c r="G77">
-        <v>87.53073329869835</v>
+        <v>4841373.270481731</v>
       </c>
       <c r="H77">
-        <v>552.6027921978141</v>
+        <v>3986022.493713306</v>
       </c>
       <c r="I77">
-        <v>-654.7261846635826</v>
+        <v>1115711.683981848</v>
       </c>
       <c r="J77">
-        <v>1258.065517026744</v>
+        <v>4842158.019458546</v>
       </c>
       <c r="K77">
-        <v>2987.519122870171</v>
+        <v>3987549.856736605</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>69.04847705322904</v>
+        <v>1116423.303840064</v>
       </c>
       <c r="G78">
-        <v>97.31715784982732</v>
+        <v>4841389.783304403</v>
       </c>
       <c r="H78">
-        <v>559.0429446243774</v>
+        <v>3986041.779862508</v>
       </c>
       <c r="I78">
-        <v>-603.6951873724662</v>
+        <v>1115762.256779388</v>
       </c>
       <c r="J78">
-        <v>1192.227950124032</v>
+        <v>4842109.367819272</v>
       </c>
       <c r="K78">
-        <v>2959.864905394745</v>
+        <v>3987520.382227209</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>66.99051518969915</v>
+        <v>1116421.471080535</v>
       </c>
       <c r="G79">
-        <v>107.1035824009563</v>
+        <v>4841406.296127074</v>
       </c>
       <c r="H79">
-        <v>565.0939679601772</v>
+        <v>3986059.900697412</v>
       </c>
       <c r="I79">
-        <v>-551.4075987207131</v>
+        <v>1115814.07488554</v>
       </c>
       <c r="J79">
-        <v>1126.39038322132</v>
+        <v>4842060.716179998</v>
       </c>
       <c r="K79">
-        <v>2917.997597376513</v>
+        <v>3987475.759074713</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>65.1060537238825</v>
+        <v>1116419.792835291</v>
       </c>
       <c r="G80">
-        <v>116.8900069520852</v>
+        <v>4841422.808949746</v>
       </c>
       <c r="H80">
-        <v>570.8002189611652</v>
+        <v>3986076.989051988</v>
       </c>
       <c r="I80">
-        <v>-497.8324763021101</v>
+        <v>1115867.168964885</v>
       </c>
       <c r="J80">
-        <v>1060.552816318609</v>
+        <v>4842012.064540722</v>
       </c>
       <c r="K80">
-        <v>2861.917198815477</v>
+        <v>3987415.987279117</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>63.37203014725589</v>
+        <v>1116418.24856555</v>
       </c>
       <c r="G81">
-        <v>126.6764315032142</v>
+        <v>4841439.321772419</v>
       </c>
       <c r="H81">
-        <v>576.1988772793003</v>
+        <v>3986093.156267128</v>
       </c>
       <c r="I81">
-        <v>-442.9381157821581</v>
+        <v>1115921.570437089</v>
       </c>
       <c r="J81">
-        <v>994.7152494158971</v>
+        <v>4841963.412901448</v>
       </c>
       <c r="K81">
-        <v>2791.623709711636</v>
+        <v>3987341.066840421</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>61.76945402838592</v>
+        <v>1116416.821358998</v>
       </c>
       <c r="G82">
-        <v>136.4628560543432</v>
+        <v>4841455.834595091</v>
       </c>
       <c r="H82">
-        <v>581.3214149240464</v>
+        <v>3986108.496591202</v>
       </c>
       <c r="I82">
-        <v>-386.6920321362874</v>
+        <v>1115977.311495496</v>
       </c>
       <c r="J82">
-        <v>928.8776825131854</v>
+        <v>4841914.761262174</v>
       </c>
       <c r="K82">
-        <v>2707.11713006499</v>
+        <v>3987250.997758626</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>60.28252759381999</v>
+        <v>1116415.497146611</v>
       </c>
       <c r="G83">
-        <v>146.2492806054722</v>
+        <v>4841472.347417763</v>
       </c>
       <c r="H83">
-        <v>586.1947078885987</v>
+        <v>3986123.090509016</v>
       </c>
       <c r="I83">
-        <v>-329.0609404260853</v>
+        <v>1116034.425126187</v>
       </c>
       <c r="J83">
-        <v>863.0401156104735</v>
+        <v>4841866.109622899</v>
       </c>
       <c r="K83">
-        <v>2608.39745987554</v>
+        <v>3987145.78003373</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>58.8979876649283</v>
+        <v>1116414.264116595</v>
       </c>
       <c r="G84">
-        <v>156.0357051566012</v>
+        <v>4841488.860240434</v>
       </c>
       <c r="H84">
-        <v>590.8418896682215</v>
+        <v>3986137.007297818</v>
       </c>
       <c r="I84">
-        <v>-270.0107361021519</v>
+        <v>1116092.945127489</v>
       </c>
       <c r="J84">
-        <v>797.2025487077622</v>
+        <v>4841817.457983624</v>
       </c>
       <c r="K84">
-        <v>2495.464699143286</v>
+        <v>3987025.413665733</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>57.60460602243403</v>
+        <v>1116413.112269434</v>
       </c>
       <c r="G85">
-        <v>165.8221297077301</v>
+        <v>4841505.373063107</v>
       </c>
       <c r="H85">
-        <v>595.2830154064088</v>
+        <v>3986150.3070162</v>
       </c>
       <c r="I85">
-        <v>-209.5064748219335</v>
+        <v>1116152.906129986</v>
       </c>
       <c r="J85">
-        <v>731.3649818050503</v>
+        <v>4841768.80634435</v>
       </c>
       <c r="K85">
-        <v>2368.318847868226</v>
+        <v>3986889.898654637</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>56.39280503628874</v>
+        <v>1116412.033075575</v>
       </c>
       <c r="G86">
-        <v>175.6085542588591</v>
+        <v>4841521.885885779</v>
       </c>
       <c r="H86">
-        <v>599.5355849535617</v>
+        <v>3986163.042070488</v>
       </c>
       <c r="I86">
-        <v>-147.5123517705891</v>
+        <v>1116214.343617006</v>
       </c>
       <c r="J86">
-        <v>665.5274149023389</v>
+        <v>4841720.154705076</v>
       </c>
       <c r="K86">
-        <v>2226.959906050363</v>
+        <v>3986739.235000441</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>55.2543584144824</v>
+        <v>1116411.019208928</v>
       </c>
       <c r="G87">
-        <v>185.3949788099881</v>
+        <v>4841538.398708451</v>
       </c>
       <c r="H87">
-        <v>603.614959343322</v>
+        <v>3986175.258461953</v>
       </c>
       <c r="I87">
-        <v>-83.99168047265265</v>
+        <v>1116277.293945623</v>
       </c>
       <c r="J87">
-        <v>599.6898479996271</v>
+        <v>4841671.503065802</v>
       </c>
       <c r="K87">
-        <v>2071.387873689695</v>
+        <v>3986573.422703144</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>54.18215566590727</v>
+        <v>1116410.0643371</v>
       </c>
       <c r="G88">
-        <v>195.181403361117</v>
+        <v>4841554.911531122</v>
       </c>
       <c r="H88">
-        <v>607.5346957308548</v>
+        <v>3986186.996789836</v>
       </c>
       <c r="I88">
-        <v>-18.90687108195086</v>
+        <v>1116341.794368169</v>
       </c>
       <c r="J88">
-        <v>533.8522810969154</v>
+        <v>4841622.851426527</v>
       </c>
       <c r="K88">
-        <v>1901.602750786221</v>
+        <v>3986392.461762748</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>53.17001484930271</v>
+        <v>1116409.16295464</v>
       </c>
       <c r="G89">
-        <v>204.967827912246</v>
+        <v>4841571.424353795</v>
       </c>
       <c r="H89">
-        <v>611.3068192297249</v>
+        <v>3986198.293065419</v>
       </c>
       <c r="I89">
-        <v>47.78059186307043</v>
+        <v>1116407.88305428</v>
       </c>
       <c r="J89">
-        <v>468.0147141942039</v>
+        <v>4841574.199787253</v>
       </c>
       <c r="K89">
-        <v>1717.604537339944</v>
+        <v>3986196.352179252</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>52.21253233439468</v>
+        <v>1116408.310249236</v>
       </c>
       <c r="G90">
-        <v>214.754252463375</v>
+        <v>4841587.937176467</v>
       </c>
       <c r="H90">
-        <v>614.9420453966154</v>
+        <v>3986209.179378288</v>
       </c>
       <c r="I90">
-        <v>116.1101722317718</v>
+        <v>1116475.599113487</v>
       </c>
       <c r="J90">
-        <v>402.1771472914921</v>
+        <v>4841525.548147978</v>
       </c>
       <c r="K90">
-        <v>1519.393233350861</v>
+        <v>3985985.093952655</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>51.30496123215309</v>
+        <v>1116407.501993448</v>
       </c>
       <c r="G91">
-        <v>224.540677014504</v>
+        <v>4841604.449999139</v>
       </c>
       <c r="H91">
-        <v>618.4499637401202</v>
+        <v>3986219.684445883</v>
       </c>
       <c r="I91">
-        <v>186.1223056549918</v>
+        <v>1116544.982618354</v>
       </c>
       <c r="J91">
-        <v>336.3395803887806</v>
+        <v>4841476.896508704</v>
       </c>
       <c r="K91">
-        <v>1306.968838818975</v>
+        <v>3985758.687082958</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>50.44311224763052</v>
+        <v>1116406.734456417</v>
       </c>
       <c r="G92">
-        <v>234.3271015656329</v>
+        <v>4841620.962821811</v>
       </c>
       <c r="H92">
-        <v>621.8391901705869</v>
+        <v>3986229.834070036</v>
       </c>
       <c r="I92">
-        <v>257.8584234537762</v>
+        <v>1116616.074628197</v>
       </c>
       <c r="J92">
-        <v>270.5020134860689</v>
+        <v>4841428.244869429</v>
       </c>
       <c r="K92">
-        <v>1080.331353744283</v>
+        <v>3985517.131570161</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>49.62327222783795</v>
+        <v>1116406.004331318</v>
       </c>
       <c r="G93">
-        <v>244.1135261167619</v>
+        <v>4841637.475644483</v>
       </c>
       <c r="H93">
-        <v>625.117494493109</v>
+        <v>3986239.651518771</v>
       </c>
       <c r="I93">
-        <v>331.3609771573381</v>
+        <v>1116688.917213379</v>
       </c>
       <c r="J93">
-        <v>204.6644465833571</v>
+        <v>4841379.593230154</v>
       </c>
       <c r="K93">
-        <v>839.480778126787</v>
+        <v>3985260.427414265</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>48.842136790743</v>
+        <v>1116405.308675368</v>
       </c>
       <c r="G94">
-        <v>253.8999506678909</v>
+        <v>4841653.988467155</v>
       </c>
       <c r="H94">
-        <v>628.2919076913149</v>
+        <v>3986249.157847583</v>
       </c>
       <c r="I94">
-        <v>406.6734636247395</v>
+        <v>1116763.553480206</v>
       </c>
       <c r="J94">
-        <v>138.8268796806456</v>
+        <v>4841330.94159088</v>
       </c>
       <c r="K94">
-        <v>584.4171119664868</v>
+        <v>3984988.574615268</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>48.09675424694012</v>
+        <v>1116404.644859879</v>
       </c>
       <c r="G95">
-        <v>263.6863752190198</v>
+        <v>4841670.501289827</v>
       </c>
       <c r="H95">
-        <v>631.368812728211</v>
+        <v>3986258.372171359</v>
       </c>
       <c r="I95">
-        <v>483.8404507851853</v>
+        <v>1116840.027596441</v>
       </c>
       <c r="J95">
-        <v>72.98931277793388</v>
+        <v>4841282.289951606</v>
       </c>
       <c r="K95">
-        <v>315.1403552633811</v>
+        <v>3984701.573173171</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>47.38447864368296</v>
+        <v>1116404.010528445</v>
       </c>
       <c r="G96">
-        <v>273.4727997701488</v>
+        <v>4841687.0141125</v>
       </c>
       <c r="H96">
-        <v>634.3540218126078</v>
+        <v>3986267.311895762</v>
       </c>
       <c r="I96">
-        <v>562.9076040121299</v>
+        <v>1116918.384817432</v>
       </c>
       <c r="J96">
-        <v>7.151745875222113</v>
+        <v>4841233.63831233</v>
       </c>
       <c r="K96">
-        <v>31.65050801747104</v>
+        <v>3984399.423087975</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>46.70293022831222</v>
+        <v>1116403.403561729</v>
       </c>
       <c r="G97">
-        <v>283.2592243212778</v>
+        <v>4841703.526935171</v>
       </c>
       <c r="H97">
-        <v>637.2528424820744</v>
+        <v>3986275.992915128</v>
       </c>
       <c r="I97">
-        <v>643.9217131468403</v>
+        <v>1116998.671512904</v>
       </c>
       <c r="J97">
-        <v>-58.68582102748935</v>
+        <v>4841184.986673056</v>
       </c>
       <c r="K97">
-        <v>-266.0524297712428</v>
+        <v>3984082.124359678</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>46.04996198460923</v>
+        <v>1116402.822047663</v>
       </c>
       <c r="G98">
-        <v>293.0456488724067</v>
+        <v>4841720.039757843</v>
       </c>
       <c r="H98">
-        <v>640.0701343903227</v>
+        <v>3986284.429782533</v>
       </c>
       <c r="I98">
-        <v>726.9307201873794</v>
+        <v>1117080.935194388</v>
       </c>
       <c r="J98">
-        <v>-124.5233879302011</v>
+        <v>4841136.335033782</v>
       </c>
       <c r="K98">
-        <v>-577.968458102762</v>
+        <v>3983749.67698828</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>45.42363116983537</v>
+        <v>1116402.264256098</v>
       </c>
       <c r="G99">
-        <v>302.8320734235357</v>
+        <v>4841736.552580515</v>
       </c>
       <c r="H99">
-        <v>642.8103583252573</v>
+        <v>3986292.635856575</v>
       </c>
       <c r="I99">
-        <v>811.9837476594063</v>
+        <v>1117165.224543349</v>
       </c>
       <c r="J99">
-        <v>-190.3609548329129</v>
+        <v>4841087.683394507</v>
       </c>
       <c r="K99">
-        <v>-904.0975769770868</v>
+        <v>3983402.080973783</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>44.82217499284128</v>
+        <v>1116401.728617144</v>
       </c>
       <c r="G100">
-        <v>312.6184979746647</v>
+        <v>4841753.065403188</v>
       </c>
       <c r="H100">
-        <v>645.4776186993383</v>
+        <v>3986300.623428628</v>
       </c>
       <c r="I100">
-        <v>899.1311276855812</v>
+        <v>1117251.589439982</v>
       </c>
       <c r="J100">
-        <v>-256.1985217356246</v>
+        <v>4841039.031755232</v>
       </c>
       <c r="K100">
-        <v>-1244.439786394215</v>
+        <v>3983039.336316186</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>44.2439897397027</v>
+        <v>1116401.213702582</v>
       </c>
       <c r="G101">
-        <v>322.4049225257936</v>
+        <v>4841769.578225859</v>
       </c>
       <c r="H101">
-        <v>648.0757005283972</v>
+        <v>3986308.403833574</v>
       </c>
       <c r="I101">
-        <v>988.4244317707806</v>
+        <v>1117340.080992742</v>
       </c>
       <c r="J101">
-        <v>-322.0360886383358</v>
+        <v>4840990.380115958</v>
       </c>
       <c r="K101">
-        <v>-1598.995086354146</v>
+        <v>3982661.443015489</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>43.68761278397528</v>
+        <v>1116400.718209839</v>
       </c>
       <c r="G102">
-        <v>332.1913470769226</v>
+        <v>4841786.091048531</v>
       </c>
       <c r="H102">
-        <v>650.6081017351562</v>
+        <v>3986315.987546548</v>
       </c>
       <c r="I102">
-        <v>1079.916501320746</v>
+        <v>1117430.751568576</v>
       </c>
       <c r="J102">
-        <v>-387.8736555410476</v>
+        <v>4840941.728476684</v>
       </c>
       <c r="K102">
-        <v>-1967.763476856884</v>
+        <v>3982268.401071692</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>43.15170702209321</v>
+        <v>1116400.240948132</v>
       </c>
       <c r="G103">
-        <v>341.9777716280516</v>
+        <v>4841802.603871204</v>
       </c>
       <c r="H103">
-        <v>653.0780614693224</v>
+        <v>3986323.384267744</v>
       </c>
       <c r="I103">
-        <v>1173.661478912217</v>
+        <v>1117523.654823926</v>
       </c>
       <c r="J103">
-        <v>-453.7112224437594</v>
+        <v>4840893.076837408</v>
       </c>
       <c r="K103">
-        <v>-2350.744957902426</v>
+        <v>3981860.210484794</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>42.63504735684973</v>
+        <v>1116399.780826425</v>
       </c>
       <c r="G104">
-        <v>351.7641961791805</v>
+        <v>4841819.116693876</v>
       </c>
       <c r="H104">
-        <v>655.4885850195417</v>
+        <v>3986330.602997017</v>
       </c>
       <c r="I104">
-        <v>1269.714840333081</v>
+        <v>1117618.845736469</v>
       </c>
       <c r="J104">
-        <v>-519.5487893464712</v>
+        <v>4840844.425198134</v>
       </c>
       <c r="K104">
-        <v>-2747.939529490774</v>
+        <v>3981436.871254797</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>42.13650891795397</v>
+        <v>1116399.336842943</v>
       </c>
       <c r="G105">
-        <v>361.5506207303096</v>
+        <v>4841835.629516548</v>
       </c>
       <c r="H105">
-        <v>657.8424657978456</v>
+        <v>3986337.652099723</v>
       </c>
       <c r="I105">
-        <v>1368.133427411462</v>
+        <v>1117716.380637659</v>
       </c>
       <c r="J105">
-        <v>-585.3863562491829</v>
+        <v>4840795.77355886</v>
       </c>
       <c r="K105">
-        <v>-3159.347191621926</v>
+        <v>3980998.383381699</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>41.65505676189555</v>
+        <v>1116398.908075995</v>
       </c>
       <c r="G106">
-        <v>371.3370452814385</v>
+        <v>4841852.142339219</v>
       </c>
       <c r="H106">
-        <v>660.1423047999556</v>
+        <v>3986344.539364991</v>
       </c>
       <c r="I106">
-        <v>1468.975481653207</v>
+        <v>1117816.317246061</v>
       </c>
       <c r="J106">
-        <v>-651.223923151894</v>
+        <v>4840747.121919585</v>
       </c>
       <c r="K106">
-        <v>-3584.967944295879</v>
+        <v>3980544.746865502</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,22 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>41.18973683649536</v>
+        <v>1116398.493675931</v>
       </c>
       <c r="G107">
-        <v>381.1234698325675</v>
+        <v>4841868.655161892</v>
       </c>
       <c r="H107">
-        <v>662.3905278814258</v>
+        <v>3986351.272057468</v>
       </c>
       <c r="I107">
-        <v>1572.300678707667</v>
+        <v>1117918.714701504</v>
       </c>
       <c r="J107">
-        <v>-717.0614900546058</v>
+        <v>4840698.47028031</v>
       </c>
       <c r="K107">
-        <v>-4024.80178751264</v>
+        <v>3980075.961706204</v>
       </c>
     </row>
   </sheetData>
